--- a/data/trans_orig/IP07A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37434FE5-FD61-417F-A18F-F49F7AB14F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7C114C-4409-4912-A128-E75047D95F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2423D8D2-17A5-4132-9BA0-A5ED630AAF71}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9E0E6C57-B94D-498F-A9FD-5A2D6452FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,253 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -100,33 +343,6 @@
     <t>10,13%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>33,21%</t>
   </si>
   <si>
@@ -154,30 +370,6 @@
     <t>39,97%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>57,48%</t>
   </si>
   <si>
@@ -205,123 +397,117 @@
     <t>62,81%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
     <t>3,95%</t>
   </si>
   <si>
@@ -349,15 +535,6 @@
     <t>10,99%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>33,06%</t>
   </si>
   <si>
@@ -412,181 +589,37 @@
     <t>63,89%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>5,46%</t>
@@ -616,27 +649,6 @@
     <t>8,08%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
     <t>39,02%</t>
   </si>
   <si>
@@ -661,18 +673,6 @@
     <t>41,59%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
     <t>54,82%</t>
   </si>
   <si>
@@ -703,6 +703,186 @@
     <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
     <t>7,98%</t>
   </si>
   <si>
@@ -727,18 +907,6 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
     <t>36,18%</t>
   </si>
   <si>
@@ -793,106 +961,133 @@
     <t>61,01%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>6,53%</t>
@@ -919,21 +1114,6 @@
     <t>10,8%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
     <t>43,96%</t>
   </si>
   <si>
@@ -955,21 +1135,6 @@
     <t>48,1%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
     <t>48,18%</t>
   </si>
   <si>
@@ -994,169 +1159,37 @@
     <t>55,3%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>5,93%</t>
@@ -1183,24 +1216,6 @@
     <t>8,57%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
     <t>39,35%</t>
   </si>
   <si>
@@ -1228,21 +1243,6 @@
     <t>42,14%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
     <t>53,14%</t>
   </si>
   <si>
@@ -1273,6 +1273,171 @@
     <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 47,27%)</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
     <t>5,69%</t>
   </si>
   <si>
@@ -1297,18 +1462,6 @@
     <t>8,87%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
     <t>28,92%</t>
   </si>
   <si>
@@ -1357,85 +1510,100 @@
     <t>68,05%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>4,65%</t>
@@ -1459,21 +1627,6 @@
     <t>8,19%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
     <t>41,62%</t>
   </si>
   <si>
@@ -1501,9 +1654,6 @@
     <t>46,58%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
     <t>53,72%</t>
   </si>
   <si>
@@ -1531,154 +1681,31 @@
     <t>58,14%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>4,43%</t>
@@ -1699,24 +1726,6 @@
     <t>5,9%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
     <t>31,85%</t>
   </si>
   <si>
@@ -1742,15 +1751,6 @@
   </si>
   <si>
     <t>36,74%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
   </si>
   <si>
     <t>63,26%</t>
@@ -2169,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC7922B-7263-4E3B-8BD4-E9322B0C47A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6860B7D5-ED03-43CD-9347-2180365C705E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2287,10 +2287,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>7707</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2302,238 +2302,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6290</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>22</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13997</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>32288</v>
+        <v>525</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>38359</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>70647</v>
+        <v>525</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>667</v>
+        <v>3293</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>8723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>667</v>
+        <v>12017</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>55876</v>
+        <v>9998</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>59355</v>
+        <v>6314</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="N8" s="7">
-        <v>115231</v>
+        <v>16312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,108 +2542,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>97217</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>104646</v>
+        <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>313</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>201863</v>
+        <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2533</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2561</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>5094</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2652,13 +2652,13 @@
         <v>553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2667,13 +2667,13 @@
         <v>732</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2682,121 +2682,121 @@
         <v>1284</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2533</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="7">
-        <v>36879</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>19421</v>
+        <v>2561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>56299</v>
+        <v>5094</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>36879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>19421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>56299</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>42</v>
@@ -2805,13 +2805,13 @@
         <v>27034</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -2820,13 +2820,13 @@
         <v>26266</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -2835,13 +2835,13 @@
         <v>53300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2856,13 @@
         <v>66999</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -2871,13 +2871,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -2886,270 +2886,270 @@
         <v>115978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>3894</v>
+        <v>667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>10421</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>14315</v>
+        <v>667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>32583</v>
+        <v>7707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>34301</v>
+        <v>6290</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>66883</v>
+        <v>13997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>32288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>38359</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>70647</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D20" s="7">
-        <v>62086</v>
+        <v>55876</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="7">
+        <v>93</v>
+      </c>
+      <c r="I20" s="7">
+        <v>59355</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>178</v>
+      </c>
+      <c r="N20" s="7">
+        <v>115231</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="7">
-        <v>61</v>
-      </c>
-      <c r="I20" s="7">
-        <v>47205</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>151</v>
-      </c>
-      <c r="N20" s="7">
-        <v>109290</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,72 +3158,72 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D21" s="7">
-        <v>98563</v>
+        <v>97217</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="I21" s="7">
-        <v>91926</v>
+        <v>104646</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="N21" s="7">
-        <v>190488</v>
+        <v>201863</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3232,49 +3232,49 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3283,181 +3283,181 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>3293</v>
+        <v>4080</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="7">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4448</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>14</v>
+      </c>
+      <c r="N24" s="7">
+        <v>8528</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="7">
-        <v>11</v>
-      </c>
-      <c r="I24" s="7">
-        <v>8723</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M24" s="7">
-        <v>15</v>
-      </c>
-      <c r="N24" s="7">
-        <v>12017</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>28751</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>22224</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>50974</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D26" s="7">
-        <v>9998</v>
+        <v>32980</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="I26" s="7">
-        <v>6314</v>
+        <v>34385</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="N26" s="7">
-        <v>16312</v>
+        <v>67365</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,123 +3466,123 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>66295</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>15037</v>
+        <v>61057</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="N27" s="7">
-        <v>28853</v>
+        <v>127351</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>4080</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>4448</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="M28" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>8528</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3591,181 +3591,181 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>28751</v>
+        <v>3894</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="7">
+        <v>14</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10421</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M30" s="7">
+        <v>20</v>
+      </c>
+      <c r="N30" s="7">
+        <v>14315</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" s="7">
-        <v>37</v>
-      </c>
-      <c r="I30" s="7">
-        <v>22224</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M30" s="7">
-        <v>82</v>
-      </c>
-      <c r="N30" s="7">
-        <v>50974</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>32583</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="7">
+        <v>45</v>
+      </c>
+      <c r="I31" s="7">
+        <v>34301</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M31" s="7">
+        <v>92</v>
+      </c>
+      <c r="N31" s="7">
+        <v>66883</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="D32" s="7">
-        <v>32980</v>
+        <v>62086</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>61</v>
+      </c>
+      <c r="I32" s="7">
+        <v>47205</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="7">
-        <v>55</v>
-      </c>
-      <c r="I32" s="7">
-        <v>34385</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>151</v>
+      </c>
+      <c r="N32" s="7">
+        <v>109290</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="M32" s="7">
-        <v>107</v>
-      </c>
-      <c r="N32" s="7">
-        <v>67365</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,49 +3774,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D33" s="7">
-        <v>66295</v>
+        <v>98563</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I33" s="7">
-        <v>61057</v>
+        <v>91926</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="N33" s="7">
-        <v>127351</v>
+        <v>190488</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,55 +3827,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>18739</v>
+        <v>667</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>183</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H34" s="7">
-        <v>36</v>
-      </c>
-      <c r="I34" s="7">
-        <v>23720</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>667</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M34" s="7">
-        <v>65</v>
-      </c>
-      <c r="N34" s="7">
-        <v>42458</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -3884,13 +3884,13 @@
         <v>1715</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3899,13 +3899,13 @@
         <v>1374</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -3914,121 +3914,121 @@
         <v>3089</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
+        <v>29</v>
+      </c>
+      <c r="D36" s="7">
+        <v>18739</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H36" s="7">
+        <v>36</v>
+      </c>
+      <c r="I36" s="7">
+        <v>23720</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M36" s="7">
+        <v>65</v>
+      </c>
+      <c r="N36" s="7">
+        <v>42458</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="7">
-        <v>133794</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="7">
-        <v>183</v>
-      </c>
-      <c r="I36" s="7">
-        <v>123027</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M36" s="7">
-        <v>383</v>
-      </c>
-      <c r="N36" s="7">
-        <v>256820</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D37" s="7">
-        <v>667</v>
+        <v>133794</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="7">
+        <v>183</v>
+      </c>
+      <c r="I37" s="7">
+        <v>123027</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>383</v>
+      </c>
+      <c r="N37" s="7">
+        <v>256820</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>667</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>282</v>
@@ -4088,13 +4088,13 @@
         <v>342890</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>477</v>
@@ -4103,13 +4103,13 @@
         <v>321645</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>992</v>
@@ -4118,13 +4118,13 @@
         <v>664534</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4145,7 +4145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C5AB7F-11AE-4D2F-98D3-172D9658FC48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D008987-7F90-4931-B161-48FBA0FC7AE3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4263,70 +4263,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <v>7751</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="7">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8988</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>16740</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1271</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4335,181 +4335,181 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1271</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>35167</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H6" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>34231</v>
+        <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>69399</v>
+        <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>6196</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5140</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="7">
+        <v>13</v>
+      </c>
+      <c r="N7" s="7">
+        <v>11336</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>53000</v>
+        <v>8294</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5878</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M8" s="7">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7">
+        <v>14172</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="7">
-        <v>83</v>
-      </c>
-      <c r="I8" s="7">
-        <v>55339</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M8" s="7">
-        <v>162</v>
-      </c>
-      <c r="N8" s="7">
-        <v>108340</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,108 +4518,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>97190</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>98559</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>195749</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>687</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>680</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
-        <v>1285</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4202</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M10" s="7">
-        <v>8</v>
-      </c>
       <c r="N10" s="7">
-        <v>5487</v>
+        <v>1367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4628,13 +4628,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4643,13 +4643,13 @@
         <v>916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4658,121 +4658,121 @@
         <v>916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>22662</v>
+        <v>1285</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>18076</v>
+        <v>4202</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M12" s="7">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>40738</v>
+        <v>5487</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>687</v>
+        <v>22662</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>680</v>
+        <v>18076</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>1367</v>
+        <v>40738</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>48</v>
@@ -4781,13 +4781,13 @@
         <v>33540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -4796,13 +4796,13 @@
         <v>29148</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -4811,13 +4811,13 @@
         <v>62688</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4832,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>74</v>
@@ -4847,13 +4847,13 @@
         <v>53022</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>159</v>
@@ -4862,270 +4862,270 @@
         <v>111196</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>6082</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>7286</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>13368</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>624</v>
+        <v>1271</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1058</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1681</v>
+        <v>1271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>40939</v>
+        <v>7751</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>36503</v>
+        <v>8988</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>284</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="M18" s="7">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>77442</v>
+        <v>16740</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>619</v>
+        <v>35167</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H19" s="7">
+        <v>52</v>
+      </c>
+      <c r="I19" s="7">
+        <v>34231</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>798</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="N19" s="7">
-        <v>1418</v>
+        <v>69399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D20" s="7">
-        <v>44865</v>
+        <v>53000</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I20" s="7">
-        <v>45682</v>
+        <v>55339</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="N20" s="7">
-        <v>90548</v>
+        <v>108340</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,54 +5134,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7">
-        <v>93130</v>
+        <v>97190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="I21" s="7">
-        <v>91327</v>
+        <v>98559</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="N21" s="7">
-        <v>184457</v>
+        <v>195749</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5193,64 +5193,64 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>2091</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5259,142 +5259,142 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>2091</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>312</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>6196</v>
+        <v>4583</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3020</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M24" s="7">
+        <v>12</v>
+      </c>
+      <c r="N24" s="7">
+        <v>7603</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H24" s="7">
-        <v>6</v>
-      </c>
-      <c r="I24" s="7">
-        <v>5140</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M24" s="7">
-        <v>13</v>
-      </c>
-      <c r="N24" s="7">
-        <v>11336</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>25866</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>323</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>30943</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>326</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>56809</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7">
-        <v>8294</v>
+        <v>36984</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>331</v>
@@ -5406,10 +5406,10 @@
         <v>333</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I26" s="7">
-        <v>5878</v>
+        <v>32561</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>334</v>
@@ -5421,10 +5421,10 @@
         <v>336</v>
       </c>
       <c r="M26" s="7">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="N26" s="7">
-        <v>14172</v>
+        <v>69545</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>337</v>
@@ -5442,303 +5442,303 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69524</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>66524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>136048</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>4583</v>
+        <v>619</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>340</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>798</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H28" s="7">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3020</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1418</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="M28" s="7">
-        <v>12</v>
-      </c>
-      <c r="N28" s="7">
-        <v>7603</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>2091</v>
+        <v>624</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1058</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M29" s="7">
+        <v>2</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1681</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2091</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7">
-        <v>25866</v>
+        <v>6082</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+      <c r="I30" s="7">
+        <v>7286</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M30" s="7">
+        <v>19</v>
+      </c>
+      <c r="N30" s="7">
+        <v>13368</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="H30" s="7">
-        <v>48</v>
-      </c>
-      <c r="I30" s="7">
-        <v>30943</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="M30" s="7">
-        <v>90</v>
-      </c>
-      <c r="N30" s="7">
-        <v>56809</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>40939</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>358</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>259</v>
+        <v>359</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>36503</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>77442</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>22</v>
+        <v>362</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
+        <v>62</v>
+      </c>
+      <c r="D32" s="7">
+        <v>44865</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H32" s="7">
         <v>58</v>
       </c>
-      <c r="D32" s="7">
-        <v>36984</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H32" s="7">
-        <v>49</v>
-      </c>
       <c r="I32" s="7">
-        <v>32561</v>
+        <v>45682</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M32" s="7">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="N32" s="7">
-        <v>69545</v>
+        <v>90548</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>372</v>
@@ -5750,49 +5750,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>69524</v>
+        <v>93130</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>66524</v>
+        <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="N33" s="7">
-        <v>136048</v>
+        <v>184457</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,55 +5803,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>19702</v>
+        <v>1307</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>373</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1478</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H34" s="7">
-        <v>36</v>
-      </c>
-      <c r="I34" s="7">
-        <v>24422</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2785</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M34" s="7">
-        <v>66</v>
-      </c>
-      <c r="N34" s="7">
-        <v>44124</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>6</v>
@@ -5860,13 +5860,13 @@
         <v>3986</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -5875,13 +5875,13 @@
         <v>1974</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -5890,109 +5890,109 @@
         <v>5959</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="D36" s="7">
-        <v>130830</v>
+        <v>19702</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H36" s="7">
+        <v>36</v>
+      </c>
+      <c r="I36" s="7">
+        <v>24422</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="L36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="7">
+        <v>66</v>
+      </c>
+      <c r="N36" s="7">
+        <v>44124</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H36" s="7">
-        <v>179</v>
-      </c>
-      <c r="I36" s="7">
-        <v>124893</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="M36" s="7">
-        <v>369</v>
-      </c>
-      <c r="N36" s="7">
-        <v>255723</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="D37" s="7">
-        <v>1307</v>
+        <v>130830</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H37" s="7">
+        <v>179</v>
+      </c>
+      <c r="I37" s="7">
+        <v>124893</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1478</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>369</v>
+      </c>
+      <c r="N37" s="7">
+        <v>255723</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2785</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>399</v>
@@ -6004,7 +6004,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>256</v>
@@ -6064,13 +6064,13 @@
         <v>332508</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>456</v>
@@ -6079,13 +6079,13 @@
         <v>321375</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>940</v>
@@ -6094,13 +6094,13 @@
         <v>653883</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6121,7 +6121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3476B29B-0DBB-4ED7-80FE-329CD8FF9573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B405C210-4051-4B8B-A4C4-9715571510C0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6239,55 +6239,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6087</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6610</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="M4" s="7">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7">
-        <v>12697</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -6296,196 +6296,196 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>420</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>30934</v>
+        <v>809</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>338</v>
+        <v>415</v>
       </c>
       <c r="H6" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>35194</v>
+        <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>425</v>
+        <v>130</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>426</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="M6" s="7">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>66128</v>
+        <v>1824</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>303</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1371</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>419</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>421</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>422</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>423</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>5102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>424</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>425</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>69957</v>
+        <v>12135</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9179</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>24</v>
+      </c>
+      <c r="N8" s="7">
+        <v>21314</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="H8" s="7">
-        <v>96</v>
-      </c>
-      <c r="I8" s="7">
-        <v>64262</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="M8" s="7">
-        <v>195</v>
-      </c>
-      <c r="N8" s="7">
-        <v>134218</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,108 +6494,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>106978</v>
+        <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>106630</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>316</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>213607</v>
+        <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>3782</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>439</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>440</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1433</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>5215</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>444</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6604,13 +6604,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6619,13 +6619,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6634,121 +6634,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>15332</v>
+        <v>3782</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>20626</v>
+        <v>1433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>453</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="M12" s="7">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>35958</v>
+        <v>5215</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>15332</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>445</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>20626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>449</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>35958</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>52</v>
@@ -6757,13 +6757,13 @@
         <v>40199</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>50</v>
@@ -6772,13 +6772,13 @@
         <v>34856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -6787,13 +6787,13 @@
         <v>75055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6808,13 @@
         <v>59313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>81</v>
@@ -6823,13 +6823,13 @@
         <v>56915</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -6838,72 +6838,72 @@
         <v>116228</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>4753</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>466</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>5704</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>469</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>10457</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -6912,196 +6912,196 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>3819</v>
+        <v>564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>3819</v>
+        <v>564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>42515</v>
+        <v>6087</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H18" s="7">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>43329</v>
+        <v>6610</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M18" s="7">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>85844</v>
+        <v>12697</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>485</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>30934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>473</v>
+        <v>241</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>35194</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>66128</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>479</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D20" s="7">
-        <v>54874</v>
+        <v>69957</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H20" s="7">
+        <v>96</v>
+      </c>
+      <c r="I20" s="7">
+        <v>64262</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="M20" s="7">
+        <v>195</v>
+      </c>
+      <c r="N20" s="7">
+        <v>134218</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="H20" s="7">
-        <v>71</v>
-      </c>
-      <c r="I20" s="7">
-        <v>54739</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="M20" s="7">
-        <v>144</v>
-      </c>
-      <c r="N20" s="7">
-        <v>109614</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,306 +7110,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D21" s="7">
-        <v>102142</v>
+        <v>106978</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="I21" s="7">
-        <v>107592</v>
+        <v>106630</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="N21" s="7">
-        <v>209734</v>
+        <v>213607</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>809</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>497</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>1016</v>
+        <v>524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>499</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1824</v>
+        <v>524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>501</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>503</v>
+        <v>99</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>2296</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>493</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>504</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>1371</v>
+        <v>549</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>505</v>
+        <v>86</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1971</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="M24" s="7">
         <v>4</v>
       </c>
-      <c r="I24" s="7">
-        <v>3731</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6</v>
-      </c>
       <c r="N24" s="7">
-        <v>5102</v>
+        <v>2520</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>510</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>511</v>
+        <v>189</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24738</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>498</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>499</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H25" s="7">
+        <v>35</v>
+      </c>
+      <c r="I25" s="7">
+        <v>23314</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>503</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>48052</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D26" s="7">
-        <v>12135</v>
+        <v>51006</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H26" s="7">
+        <v>71</v>
+      </c>
+      <c r="I26" s="7">
+        <v>45255</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>142</v>
+      </c>
+      <c r="N26" s="7">
+        <v>96261</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="H26" s="7">
-        <v>10</v>
-      </c>
-      <c r="I26" s="7">
-        <v>9179</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="M26" s="7">
-        <v>24</v>
-      </c>
-      <c r="N26" s="7">
-        <v>21314</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,267 +7418,267 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14314</v>
+        <v>77943</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="N27" s="7">
-        <v>28240</v>
+        <v>149653</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>1971</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>522</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>344</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>524</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3819</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3819</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1650</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>646</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2296</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>526</v>
-      </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>18</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>24738</v>
+        <v>4753</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="H30" s="7">
+        <v>7</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5704</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M30" s="7">
+        <v>14</v>
+      </c>
+      <c r="N30" s="7">
+        <v>10457</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="H30" s="7">
-        <v>35</v>
-      </c>
-      <c r="I30" s="7">
-        <v>23314</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="M30" s="7">
-        <v>70</v>
-      </c>
-      <c r="N30" s="7">
-        <v>48052</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>42515</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>529</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>41</v>
+        <v>530</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H31" s="7">
+        <v>58</v>
+      </c>
+      <c r="I31" s="7">
+        <v>43329</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="M31" s="7">
+        <v>116</v>
+      </c>
+      <c r="N31" s="7">
+        <v>85844</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>524</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>524</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32" s="7">
-        <v>51006</v>
+        <v>54874</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>538</v>
@@ -7693,7 +7693,7 @@
         <v>71</v>
       </c>
       <c r="I32" s="7">
-        <v>45255</v>
+        <v>54739</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>541</v>
@@ -7705,10 +7705,10 @@
         <v>543</v>
       </c>
       <c r="M32" s="7">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N32" s="7">
-        <v>96261</v>
+        <v>109614</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>544</v>
@@ -7726,49 +7726,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D33" s="7">
-        <v>77943</v>
+        <v>102142</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
-        <v>71710</v>
+        <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="N33" s="7">
-        <v>149653</v>
+        <v>209734</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,55 +7779,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>15979</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>524</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>524</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="H34" s="7">
-        <v>23</v>
-      </c>
-      <c r="I34" s="7">
-        <v>16734</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M34" s="7">
-        <v>46</v>
-      </c>
-      <c r="N34" s="7">
-        <v>32713</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
@@ -7836,13 +7836,13 @@
         <v>1650</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -7851,13 +7851,13 @@
         <v>5029</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -7866,121 +7866,121 @@
         <v>6680</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="D36" s="7">
-        <v>114890</v>
+        <v>15979</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H36" s="7">
+        <v>23</v>
+      </c>
+      <c r="I36" s="7">
+        <v>16734</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M36" s="7">
+        <v>46</v>
+      </c>
+      <c r="N36" s="7">
+        <v>32713</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="H36" s="7">
-        <v>181</v>
-      </c>
-      <c r="I36" s="7">
-        <v>126194</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="M36" s="7">
-        <v>342</v>
-      </c>
-      <c r="N36" s="7">
-        <v>241083</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>114890</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>22</v>
+        <v>562</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>41</v>
+        <v>563</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>396</v>
+        <v>564</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="I37" s="7">
-        <v>524</v>
+        <v>126194</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="M37" s="7">
+        <v>342</v>
+      </c>
+      <c r="N37" s="7">
+        <v>241083</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>524</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>309</v>
@@ -8040,13 +8040,13 @@
         <v>360690</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>510</v>
@@ -8055,13 +8055,13 @@
         <v>356772</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>1005</v>
@@ -8070,13 +8070,13 @@
         <v>717462</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7C114C-4409-4912-A128-E75047D95F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C76362-B56E-4544-A635-05D4FF0B1150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9E0E6C57-B94D-498F-A9FD-5A2D6452FDA4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3752369-81BF-4EB3-8892-F56E3796DB25}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="591">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -70,106 +70,205 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>1,86%</t>
@@ -181,112 +280,112 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>3,06%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -298,1486 +397,1420 @@
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>46,57%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>36,1%</t>
   </si>
   <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1821,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1884,39 +1917,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1968,7 +2001,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2079,13 +2112,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2094,6 +2120,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2158,19 +2191,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6860B7D5-ED03-43CD-9347-2180365C705E}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2B4E8F-5174-4ECB-8186-FDEFF5F3D7A6}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2287,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9998</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2302,91 +2355,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6314</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>16312</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3293</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>8723</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>12017</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -2395,13 +2448,13 @@
         <v>525</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2410,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2425,115 +2478,115 @@
         <v>525</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>3293</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>8723</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>12017</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>9998</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6314</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="M8" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>16312</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,106 +2648,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>27034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>26266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>53300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>553</v>
+        <v>36879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>732</v>
+        <v>19421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="N11" s="7">
-        <v>1284</v>
+        <v>56299</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -2703,13 +2756,13 @@
         <v>2533</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2718,13 +2771,13 @@
         <v>2561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2733,112 +2786,112 @@
         <v>5094</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>36879</v>
+        <v>553</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>19421</v>
+        <v>732</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>56299</v>
+        <v>1284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>27034</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>26266</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>53300</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>79</v>
@@ -2903,106 +2956,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>667</v>
+        <v>55876</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>59355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="N16" s="7">
-        <v>667</v>
+        <v>115231</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>680</v>
+        <v>32288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="I17" s="7">
-        <v>642</v>
+        <v>38359</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="N17" s="7">
-        <v>1321</v>
+        <v>70647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>12</v>
@@ -3011,13 +3064,13 @@
         <v>7707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -3026,13 +3079,13 @@
         <v>6290</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -3041,112 +3094,112 @@
         <v>13997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>32288</v>
+        <v>680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>38359</v>
+        <v>642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>70647</v>
+        <v>1321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>55876</v>
+        <v>667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>59355</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>115231</v>
+        <v>667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>118</v>
@@ -3211,106 +3264,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>32980</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>34385</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>67365</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D23" s="7">
-        <v>483</v>
+        <v>28751</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>22224</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="N23" s="7">
-        <v>483</v>
+        <v>50974</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -3319,13 +3372,13 @@
         <v>4080</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3334,13 +3387,13 @@
         <v>4448</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -3349,115 +3402,115 @@
         <v>8528</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>28751</v>
+        <v>483</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>22224</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>50974</v>
+        <v>483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>32980</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>34385</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="M26" s="7">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>67365</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,106 +3572,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>62086</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>47205</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>109290</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>32583</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>34301</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>66883</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
@@ -3627,13 +3680,13 @@
         <v>3894</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -3642,13 +3695,13 @@
         <v>10421</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -3657,115 +3710,115 @@
         <v>14315</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>32583</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H31" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>34301</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>66883</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>62086</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H32" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>47205</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M32" s="7">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>109290</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,106 +3880,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="D34" s="7">
-        <v>667</v>
+        <v>187975</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>183</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>173524</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>538</v>
       </c>
       <c r="N34" s="7">
-        <v>667</v>
+        <v>361499</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="D35" s="7">
-        <v>1715</v>
+        <v>133794</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="I35" s="7">
-        <v>1374</v>
+        <v>123027</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M35" s="7">
-        <v>5</v>
+        <v>383</v>
       </c>
       <c r="N35" s="7">
-        <v>3089</v>
+        <v>256820</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>29</v>
@@ -3935,13 +3988,13 @@
         <v>18739</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H36" s="7">
         <v>36</v>
@@ -3950,13 +4003,13 @@
         <v>23720</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="M36" s="7">
         <v>65</v>
@@ -3965,115 +4018,115 @@
         <v>42458</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>133794</v>
+        <v>1715</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="H37" s="7">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>123027</v>
+        <v>1374</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M37" s="7">
-        <v>383</v>
+        <v>5</v>
       </c>
       <c r="N37" s="7">
-        <v>256820</v>
+        <v>3089</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>187975</v>
+        <v>667</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H38" s="7">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>173524</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M38" s="7">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>361499</v>
+        <v>667</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,6 +4178,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4145,8 +4203,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D008987-7F90-4931-B161-48FBA0FC7AE3}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD59EFE6-3242-4E1F-A2AC-ED8B5BA1E448}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4162,7 +4220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4263,106 +4321,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8294</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5878</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>14172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6196</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>5140</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>11336</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4371,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4386,13 +4444,13 @@
         <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4401,115 +4459,115 @@
         <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>6196</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>5140</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>11336</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8294</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>5878</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>14172</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,106 +4629,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>687</v>
+        <v>33540</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>680</v>
+        <v>29148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7">
-        <v>1367</v>
+        <v>62688</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>22662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>916</v>
+        <v>18076</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>916</v>
+        <v>40738</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -4679,13 +4737,13 @@
         <v>1285</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4694,13 +4752,13 @@
         <v>4202</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4709,115 +4767,115 @@
         <v>5487</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7">
-        <v>22662</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>18076</v>
+        <v>916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>40738</v>
+        <v>916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>33540</v>
+        <v>687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>29148</v>
+        <v>680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>62688</v>
+        <v>1367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,106 +4937,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>53000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>55339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>108340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>1271</v>
+        <v>35167</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>34231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="N17" s="7">
-        <v>1271</v>
+        <v>69399</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>12</v>
@@ -4987,13 +5045,13 @@
         <v>7751</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5002,13 +5060,13 @@
         <v>8988</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -5017,115 +5075,115 @@
         <v>16740</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>58</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>35167</v>
+        <v>1271</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>34231</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>293</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="M19" s="7">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>69399</v>
+        <v>1271</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>55339</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>302</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>108340</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,106 +5245,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>36984</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>32561</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>314</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>69545</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D23" s="7">
-        <v>2091</v>
+        <v>25866</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>30943</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="N23" s="7">
-        <v>2091</v>
+        <v>56809</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>7</v>
@@ -5295,13 +5353,13 @@
         <v>4583</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5310,13 +5368,13 @@
         <v>3020</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -5325,115 +5383,115 @@
         <v>7603</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>25866</v>
+        <v>2091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>30943</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>326</v>
+        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="M25" s="7">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>56809</v>
+        <v>2091</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>36984</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>332</v>
+        <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="H26" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>32561</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>335</v>
+        <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="M26" s="7">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>69545</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>337</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>338</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,106 +5553,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D28" s="7">
-        <v>619</v>
+        <v>44865</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I28" s="7">
-        <v>798</v>
+        <v>45682</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="N28" s="7">
-        <v>1418</v>
+        <v>90548</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>344</v>
+        <v>85</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D29" s="7">
-        <v>624</v>
+        <v>40939</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="I29" s="7">
-        <v>1058</v>
+        <v>36503</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="N29" s="7">
-        <v>1681</v>
+        <v>77442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>9</v>
@@ -5603,13 +5661,13 @@
         <v>6082</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>351</v>
+        <v>139</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -5618,13 +5676,13 @@
         <v>7286</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -5633,115 +5691,115 @@
         <v>13368</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>40939</v>
+        <v>624</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="H31" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>36503</v>
+        <v>1058</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>360</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M31" s="7">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>77442</v>
+        <v>1681</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>363</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>44865</v>
+        <v>619</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>366</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H32" s="7">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>45682</v>
+        <v>798</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>369</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M32" s="7">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>90548</v>
+        <v>1418</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,106 +5861,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="D34" s="7">
-        <v>1307</v>
+        <v>176684</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="I34" s="7">
-        <v>1478</v>
+        <v>168607</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>191</v>
+        <v>380</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>493</v>
       </c>
       <c r="N34" s="7">
-        <v>2785</v>
+        <v>345292</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>189</v>
+        <v>383</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="D35" s="7">
-        <v>3986</v>
+        <v>130830</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="I35" s="7">
-        <v>1974</v>
+        <v>124893</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>390</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="M35" s="7">
-        <v>8</v>
+        <v>369</v>
       </c>
       <c r="N35" s="7">
-        <v>5959</v>
+        <v>255723</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>382</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>30</v>
@@ -5911,13 +5969,13 @@
         <v>19702</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="H36" s="7">
         <v>36</v>
@@ -5926,13 +5984,13 @@
         <v>24422</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>13</v>
+        <v>399</v>
       </c>
       <c r="M36" s="7">
         <v>66</v>
@@ -5941,115 +5999,115 @@
         <v>44124</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="D37" s="7">
-        <v>130830</v>
+        <v>3986</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>393</v>
+        <v>214</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="H37" s="7">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>124893</v>
+        <v>1974</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>396</v>
+        <v>32</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M37" s="7">
-        <v>369</v>
+        <v>8</v>
       </c>
       <c r="N37" s="7">
-        <v>255723</v>
+        <v>5959</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>176684</v>
+        <v>1307</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>402</v>
+        <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H38" s="7">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>168607</v>
+        <v>1478</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>404</v>
+        <v>214</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>405</v>
+        <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>406</v>
+        <v>66</v>
       </c>
       <c r="M38" s="7">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="N38" s="7">
-        <v>345292</v>
+        <v>2785</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>407</v>
+        <v>212</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,6 +6159,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6121,8 +6184,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B405C210-4051-4B8B-A4C4-9715571510C0}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E1ED7C-3ED2-410D-840A-0E213A8BEAA8}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6138,7 +6201,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6239,106 +6302,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>12135</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>412</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>413</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>9179</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>415</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>416</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>21314</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>418</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>419</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1371</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>5102</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -6347,13 +6410,13 @@
         <v>809</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6362,13 +6425,13 @@
         <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6377,115 +6440,115 @@
         <v>1824</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1371</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>419</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>421</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>422</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>5102</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>424</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>425</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>12135</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>426</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>427</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>9179</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>21314</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>433</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,106 +6610,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>40199</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>34856</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>75055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>15332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>447</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>20626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>35958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>452</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>453</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -6655,13 +6718,13 @@
         <v>3782</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6670,13 +6733,13 @@
         <v>1433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -6685,115 +6748,115 @@
         <v>5215</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>15332</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>445</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>446</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>20626</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>448</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>449</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>35958</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>451</v>
+        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>40199</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H14" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>34856</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M14" s="7">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>75055</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,106 +6918,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>69957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>64262</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>469</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>470</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>471</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>134218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>472</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>473</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>30934</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>475</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>476</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I17" s="7">
-        <v>564</v>
+        <v>35194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>479</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>480</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="N17" s="7">
-        <v>564</v>
+        <v>66128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>482</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -6963,13 +7026,13 @@
         <v>6087</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -6978,13 +7041,13 @@
         <v>6610</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -6993,115 +7056,115 @@
         <v>12697</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>195</v>
+        <v>490</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>30934</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>492</v>
       </c>
       <c r="H19" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>35194</v>
+        <v>564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="M19" s="7">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>66128</v>
+        <v>564</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>69957</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>64262</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>134218</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,106 +7226,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>51006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="I22" s="7">
-        <v>524</v>
+        <v>45255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>313</v>
+        <v>501</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="N22" s="7">
-        <v>524</v>
+        <v>96261</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7">
-        <v>1650</v>
+        <v>24738</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>505</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>506</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I23" s="7">
-        <v>646</v>
+        <v>23314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>307</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="N23" s="7">
-        <v>2296</v>
+        <v>48052</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>189</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -7271,13 +7334,13 @@
         <v>549</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7286,13 +7349,13 @@
         <v>1971</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7301,115 +7364,115 @@
         <v>2520</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>318</v>
+        <v>517</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>24738</v>
+        <v>1650</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>499</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="H25" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>23314</v>
+        <v>646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>501</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>502</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="M25" s="7">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>48052</v>
+        <v>2296</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>505</v>
+        <v>212</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>506</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>51006</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>508</v>
+        <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="H26" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>45255</v>
+        <v>524</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>510</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>511</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="M26" s="7">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>96261</v>
+        <v>524</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>514</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>515</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,106 +7534,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>54874</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>527</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>54739</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>530</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>531</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>109614</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>533</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>534</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>81</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>42515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>536</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>537</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="H29" s="7">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="I29" s="7">
-        <v>3819</v>
+        <v>43329</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="N29" s="7">
-        <v>3819</v>
+        <v>85844</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>20</v>
+        <v>542</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>81</v>
+        <v>543</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>7</v>
@@ -7579,13 +7642,13 @@
         <v>4753</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>523</v>
+        <v>77</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -7594,13 +7657,13 @@
         <v>5704</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>549</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -7609,115 +7672,115 @@
         <v>10457</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>42515</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>529</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>530</v>
+        <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>531</v>
+        <v>408</v>
       </c>
       <c r="H31" s="7">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>43329</v>
+        <v>3819</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="M31" s="7">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>85844</v>
+        <v>3819</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>535</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>54874</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>538</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>539</v>
+        <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>540</v>
+        <v>408</v>
       </c>
       <c r="H32" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>54739</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>541</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>542</v>
+        <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="M32" s="7">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>109614</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>544</v>
+        <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>545</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>546</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,106 +7842,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>228170</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>559</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>560</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>373</v>
+        <v>561</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="I34" s="7">
-        <v>524</v>
+        <v>208291</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>563</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>607</v>
       </c>
       <c r="N34" s="7">
-        <v>524</v>
+        <v>436462</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="D35" s="7">
-        <v>1650</v>
+        <v>114890</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>191</v>
+        <v>567</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>568</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="H35" s="7">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="I35" s="7">
-        <v>5029</v>
+        <v>126194</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="M35" s="7">
-        <v>9</v>
+        <v>342</v>
       </c>
       <c r="N35" s="7">
-        <v>6680</v>
+        <v>241083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>318</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>23</v>
@@ -7887,13 +7950,13 @@
         <v>15979</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>556</v>
+        <v>375</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>200</v>
+        <v>577</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -7902,13 +7965,13 @@
         <v>16734</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>558</v>
+        <v>179</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>347</v>
+        <v>579</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -7917,115 +7980,115 @@
         <v>32713</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>131</v>
+        <v>581</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>114890</v>
+        <v>1650</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>562</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>563</v>
+        <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="H37" s="7">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>126194</v>
+        <v>5029</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>565</v>
+        <v>211</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="M37" s="7">
-        <v>342</v>
+        <v>9</v>
       </c>
       <c r="N37" s="7">
-        <v>241083</v>
+        <v>6680</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>569</v>
+        <v>212</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>228170</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>571</v>
+        <v>32</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>572</v>
+        <v>34</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>573</v>
+        <v>407</v>
       </c>
       <c r="H38" s="7">
-        <v>298</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>208291</v>
+        <v>524</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>575</v>
+        <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="M38" s="7">
-        <v>607</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>436462</v>
+        <v>524</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>578</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>579</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,6 +8140,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C76362-B56E-4544-A635-05D4FF0B1150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFC0F5F-32D5-4CCD-AB7E-5FDEEC02F4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3752369-81BF-4EB3-8892-F56E3796DB25}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DEE1FF8B-8165-445D-A9F2-61CFC47C1AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="588">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,28 +76,28 @@
     <t>72,37%</t>
   </si>
   <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>41,99%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>23,84%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
   </si>
   <si>
     <t>58,01%</t>
   </si>
   <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -139,7 +139,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,57%</t>
+    <t>16,83%</t>
   </si>
   <si>
     <t>0%</t>
@@ -151,7 +151,7 @@
     <t>1,82%</t>
   </si>
   <si>
-    <t>10,62%</t>
+    <t>7,67%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -169,1639 +169,1630 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>40,35%</t>
   </si>
   <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>0,15%</t>
@@ -2222,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2B4E8F-5174-4ECB-8186-FDEFF5F3D7A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DBBEA-A07C-40B4-8BE5-F2384A794771}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2813,7 +2804,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2822,13 +2813,13 @@
         <v>732</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2837,13 +2828,13 @@
         <v>1284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,7 +2855,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2879,7 +2870,7 @@
         <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2894,7 +2885,7 @@
         <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,7 +2941,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2962,13 +2953,13 @@
         <v>55876</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -2977,13 +2968,13 @@
         <v>59355</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -2992,13 +2983,13 @@
         <v>115231</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3004,13 @@
         <v>32288</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -3028,13 +3019,13 @@
         <v>38359</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -3043,13 +3034,13 @@
         <v>70647</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3055,13 @@
         <v>7707</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -3079,13 +3070,13 @@
         <v>6290</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -3094,13 +3085,13 @@
         <v>13997</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3106,13 @@
         <v>680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3130,13 +3121,13 @@
         <v>642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3145,13 +3136,13 @@
         <v>1321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3157,13 @@
         <v>667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3187,7 +3178,7 @@
         <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3196,13 +3187,13 @@
         <v>667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3249,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3270,13 +3261,13 @@
         <v>32980</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -3285,13 +3276,13 @@
         <v>34385</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -3300,13 +3291,13 @@
         <v>67365</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3312,13 @@
         <v>28751</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -3336,13 +3327,13 @@
         <v>22224</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -3351,13 +3342,13 @@
         <v>50974</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3363,13 @@
         <v>4080</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3387,13 +3378,13 @@
         <v>4448</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -3402,13 +3393,13 @@
         <v>8528</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3414,13 @@
         <v>483</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3444,7 +3435,7 @@
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -3453,13 +3444,13 @@
         <v>483</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,7 +3471,7 @@
         <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3495,7 +3486,7 @@
         <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3510,7 +3501,7 @@
         <v>34</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,7 +3557,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3578,13 +3569,13 @@
         <v>62086</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>61</v>
@@ -3593,13 +3584,13 @@
         <v>47205</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>151</v>
@@ -3608,13 +3599,13 @@
         <v>109290</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3620,13 @@
         <v>32583</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -3644,13 +3635,13 @@
         <v>34301</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -3659,13 +3650,13 @@
         <v>66883</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3671,13 @@
         <v>3894</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -3695,13 +3686,13 @@
         <v>10421</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -3710,13 +3701,13 @@
         <v>14315</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3728,7 @@
         <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3752,7 +3743,7 @@
         <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3767,7 +3758,7 @@
         <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,7 +3779,7 @@
         <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3803,7 +3794,7 @@
         <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3818,7 +3809,7 @@
         <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3877,13 @@
         <v>187975</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H34" s="7">
         <v>256</v>
@@ -3901,13 +3892,13 @@
         <v>173524</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M34" s="7">
         <v>538</v>
@@ -3916,13 +3907,13 @@
         <v>361499</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3928,13 @@
         <v>133794</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H35" s="7">
         <v>183</v>
@@ -3952,13 +3943,13 @@
         <v>123027</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7">
         <v>383</v>
@@ -3967,13 +3958,13 @@
         <v>256820</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3979,13 @@
         <v>18739</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H36" s="7">
         <v>36</v>
@@ -4003,13 +3994,13 @@
         <v>23720</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="M36" s="7">
         <v>65</v>
@@ -4018,13 +4009,13 @@
         <v>42458</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4030,13 @@
         <v>1715</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -4054,13 +4045,13 @@
         <v>1374</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -4069,13 +4060,13 @@
         <v>3089</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4081,13 @@
         <v>667</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4111,7 +4102,7 @@
         <v>34</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -4120,13 +4111,13 @@
         <v>667</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,7 +4173,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4203,7 +4194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD59EFE6-3242-4E1F-A2AC-ED8B5BA1E448}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396D8C55-B904-40AF-AE5A-83623AF42CDE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4220,7 +4211,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4327,13 +4318,13 @@
         <v>8294</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4342,13 +4333,13 @@
         <v>5878</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4357,13 +4348,13 @@
         <v>14172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4369,13 @@
         <v>6196</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4393,13 +4384,13 @@
         <v>5140</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4408,13 +4399,13 @@
         <v>11336</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,7 +4426,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4444,13 +4435,13 @@
         <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4459,13 +4450,13 @@
         <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,7 +4477,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4501,7 +4492,7 @@
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4516,7 +4507,7 @@
         <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,7 +4528,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4552,7 +4543,7 @@
         <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4567,7 +4558,7 @@
         <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4626,13 @@
         <v>33540</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -4650,13 +4641,13 @@
         <v>29148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -4665,13 +4656,13 @@
         <v>62688</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4677,13 @@
         <v>22662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -4701,13 +4692,13 @@
         <v>18076</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -4716,13 +4707,13 @@
         <v>40738</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4728,13 @@
         <v>1285</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4752,13 +4743,13 @@
         <v>4202</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4767,13 +4758,13 @@
         <v>5487</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,7 +4785,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4803,13 +4794,13 @@
         <v>916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4824,7 +4815,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4830,13 @@
         <v>687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4854,13 +4845,13 @@
         <v>680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4869,13 +4860,13 @@
         <v>1367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,7 +4922,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4943,13 +4934,13 @@
         <v>53000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -4958,13 +4949,13 @@
         <v>55339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>162</v>
@@ -4973,13 +4964,13 @@
         <v>108340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4985,13 @@
         <v>35167</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -5009,13 +5000,13 @@
         <v>34231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -5024,13 +5015,13 @@
         <v>69399</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5036,13 @@
         <v>7751</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5060,13 +5051,13 @@
         <v>8988</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -5075,13 +5066,13 @@
         <v>16740</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5087,13 @@
         <v>1271</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5117,7 +5108,7 @@
         <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5126,13 +5117,13 @@
         <v>1271</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5144,7 @@
         <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5168,7 +5159,7 @@
         <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5183,7 +5174,7 @@
         <v>34</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,7 +5230,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5251,13 +5242,13 @@
         <v>36984</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -5266,13 +5257,13 @@
         <v>32561</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -5281,13 +5272,13 @@
         <v>69545</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5293,13 @@
         <v>25866</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7">
         <v>48</v>
@@ -5317,13 +5308,13 @@
         <v>30943</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M23" s="7">
         <v>90</v>
@@ -5332,13 +5323,13 @@
         <v>56809</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5344,13 @@
         <v>4583</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5368,13 +5359,13 @@
         <v>3020</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -5383,13 +5374,13 @@
         <v>7603</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5395,13 @@
         <v>2091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5425,7 +5416,7 @@
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5434,13 +5425,13 @@
         <v>2091</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,7 +5452,7 @@
         <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5476,7 +5467,7 @@
         <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5491,7 +5482,7 @@
         <v>34</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,7 +5538,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5559,13 +5550,13 @@
         <v>44865</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H28" s="7">
         <v>58</v>
@@ -5574,13 +5565,13 @@
         <v>45682</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M28" s="7">
         <v>120</v>
@@ -5589,13 +5580,13 @@
         <v>90548</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>85</v>
+        <v>345</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5601,13 @@
         <v>40939</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -5625,13 +5616,13 @@
         <v>36503</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M29" s="7">
         <v>102</v>
@@ -5640,13 +5631,13 @@
         <v>77442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5652,13 @@
         <v>6082</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>139</v>
+        <v>358</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -5676,13 +5667,13 @@
         <v>7286</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -5691,13 +5682,13 @@
         <v>13368</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5703,13 @@
         <v>624</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5727,13 +5718,13 @@
         <v>1058</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -5742,13 +5733,13 @@
         <v>1681</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5754,13 @@
         <v>619</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -5778,13 +5769,13 @@
         <v>798</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -5793,13 +5784,13 @@
         <v>1418</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5858,13 @@
         <v>176684</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>379</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>237</v>
@@ -5882,13 +5873,13 @@
         <v>168607</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>382</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>493</v>
@@ -5897,13 +5888,13 @@
         <v>345292</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5909,13 @@
         <v>130830</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H35" s="7">
         <v>179</v>
@@ -5933,13 +5924,13 @@
         <v>124893</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M35" s="7">
         <v>369</v>
@@ -5948,13 +5939,13 @@
         <v>255723</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>231</v>
+        <v>389</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5960,13 @@
         <v>19702</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H36" s="7">
         <v>36</v>
@@ -5984,13 +5975,13 @@
         <v>24422</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M36" s="7">
         <v>66</v>
@@ -5999,13 +5990,13 @@
         <v>44124</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6011,13 @@
         <v>3986</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>401</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -6035,13 +6026,13 @@
         <v>1974</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>405</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>8</v>
@@ -6050,13 +6041,13 @@
         <v>5959</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6062,13 @@
         <v>1307</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6086,13 +6077,13 @@
         <v>1478</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>66</v>
+        <v>406</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6101,13 +6092,13 @@
         <v>2785</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>410</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,7 +6154,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6184,7 +6175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E1ED7C-3ED2-410D-840A-0E213A8BEAA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBCF5C8-7D8B-4B17-89D4-AF9AD743073B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6201,7 +6192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6308,13 +6299,13 @@
         <v>12135</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -6323,13 +6314,13 @@
         <v>9179</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -6338,13 +6329,13 @@
         <v>21314</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>419</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6350,13 @@
         <v>1371</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6374,13 +6365,13 @@
         <v>3731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6389,13 +6380,13 @@
         <v>5102</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6401,13 @@
         <v>809</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6425,13 +6416,13 @@
         <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6440,13 +6431,13 @@
         <v>1824</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,7 +6458,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6482,7 +6473,7 @@
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6497,7 +6488,7 @@
         <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,7 +6509,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6533,7 +6524,7 @@
         <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6548,7 +6539,7 @@
         <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,13 +6607,13 @@
         <v>40199</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -6631,13 +6622,13 @@
         <v>34856</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -6646,13 +6637,13 @@
         <v>75055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6658,13 @@
         <v>15332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -6682,13 +6673,13 @@
         <v>20626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -6697,13 +6688,13 @@
         <v>35958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6709,13 @@
         <v>3782</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6733,13 +6724,13 @@
         <v>1433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>459</v>
+        <v>295</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -6748,13 +6739,13 @@
         <v>5215</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,7 +6766,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6790,7 +6781,7 @@
         <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6805,7 +6796,7 @@
         <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,7 +6817,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6841,7 +6832,7 @@
         <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6856,7 +6847,7 @@
         <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,7 +6903,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6924,13 +6915,13 @@
         <v>69957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -6939,13 +6930,13 @@
         <v>64262</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M16" s="7">
         <v>195</v>
@@ -6954,13 +6945,13 @@
         <v>134218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +6966,13 @@
         <v>30934</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -6990,13 +6981,13 @@
         <v>35194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M17" s="7">
         <v>101</v>
@@ -7005,13 +6996,13 @@
         <v>66128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7017,13 @@
         <v>6087</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -7041,13 +7032,13 @@
         <v>6610</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -7056,13 +7047,13 @@
         <v>12697</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>485</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,7 +7074,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7092,13 +7083,13 @@
         <v>564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -7107,13 +7098,13 @@
         <v>564</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,7 +7125,7 @@
         <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7149,7 +7140,7 @@
         <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7164,7 +7155,7 @@
         <v>34</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,7 +7211,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7232,13 +7223,13 @@
         <v>51006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -7247,13 +7238,13 @@
         <v>45255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="M22" s="7">
         <v>142</v>
@@ -7262,13 +7253,13 @@
         <v>96261</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7274,13 @@
         <v>24738</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -7298,13 +7289,13 @@
         <v>23314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M23" s="7">
         <v>70</v>
@@ -7313,13 +7304,13 @@
         <v>48052</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7325,13 @@
         <v>549</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7349,13 +7340,13 @@
         <v>1971</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7364,13 +7355,13 @@
         <v>2520</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7376,13 @@
         <v>1650</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7400,13 +7391,13 @@
         <v>646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -7415,13 +7406,13 @@
         <v>2296</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>523</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>106</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,7 +7433,7 @@
         <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7451,13 +7442,13 @@
         <v>524</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7466,13 +7457,13 @@
         <v>524</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,7 +7519,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7540,13 +7531,13 @@
         <v>54874</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -7555,13 +7546,13 @@
         <v>54739</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="M28" s="7">
         <v>144</v>
@@ -7570,13 +7561,13 @@
         <v>109614</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7582,13 @@
         <v>42515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>537</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -7606,13 +7597,13 @@
         <v>43329</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>541</v>
+        <v>356</v>
       </c>
       <c r="M29" s="7">
         <v>116</v>
@@ -7621,13 +7612,13 @@
         <v>85844</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7633,13 @@
         <v>4753</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -7657,13 +7648,13 @@
         <v>5704</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -7672,13 +7663,13 @@
         <v>10457</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,7 +7690,7 @@
         <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>408</v>
+        <v>549</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -7708,13 +7699,13 @@
         <v>3819</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -7726,10 +7717,10 @@
         <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>556</v>
+        <v>108</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7750,7 +7741,7 @@
         <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>408</v>
+        <v>549</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7765,7 +7756,7 @@
         <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>558</v>
+        <v>66</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7780,7 +7771,7 @@
         <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,13 +7839,13 @@
         <v>228170</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H34" s="7">
         <v>298</v>
@@ -7863,13 +7854,13 @@
         <v>208291</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M34" s="7">
         <v>607</v>
@@ -7878,13 +7869,13 @@
         <v>436462</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7899,13 +7890,13 @@
         <v>114890</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H35" s="7">
         <v>181</v>
@@ -7914,13 +7905,13 @@
         <v>126194</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M35" s="7">
         <v>342</v>
@@ -7929,13 +7920,13 @@
         <v>241083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,13 +7941,13 @@
         <v>15979</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>375</v>
+        <v>572</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -7965,13 +7956,13 @@
         <v>16734</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>179</v>
+        <v>575</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -7980,13 +7971,13 @@
         <v>32713</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>581</v>
+        <v>370</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>582</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,13 +7992,13 @@
         <v>1650</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -8016,13 +8007,13 @@
         <v>5029</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>211</v>
+        <v>580</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -8031,13 +8022,13 @@
         <v>6680</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>212</v>
+        <v>583</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,7 +8049,7 @@
         <v>34</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -8067,13 +8058,13 @@
         <v>524</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -8082,13 +8073,13 @@
         <v>524</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>341</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8144,7 +8135,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
